--- a/usp.xlsx
+++ b/usp.xlsx
@@ -241,15 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4+N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u32 TraceSize
-u8 Data[N]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于返回设置结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,11 +254,6 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u16 Cmd
-u16 Result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -277,6 +263,23 @@
   <si>
     <t>DataSize = 1，表示查询
 u8 Sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整串口波特率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u32 NewBR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u32 LowLevelVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16 Cmd //接收的命令
+u16 Result //执行结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -287,15 +290,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调整串口波特率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u32 NewBR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u32 LowLevelVersion</t>
+    <t>u8 Data[N]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -915,10 +914,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -1099,7 +1098,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1115,7 +1114,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="5"/>
@@ -1167,7 +1166,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="5"/>
@@ -1183,10 +1182,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -1257,7 +1256,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -1312,7 +1311,7 @@
         <v>24</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="6"/>
@@ -1354,7 +1353,7 @@
         <v>27</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -1438,7 +1437,7 @@
         <v>27</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C56" s="12"/>
     </row>
@@ -1546,15 +1545,15 @@
         <v>26</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
